--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_17.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>747282.1545318934</v>
+        <v>743870.5505813216</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335690.329388977</v>
+        <v>335690.3293889765</v>
       </c>
     </row>
     <row r="8">
@@ -656,73 +656,73 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>114.9581870864144</v>
+      </c>
+      <c r="I2" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E2" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -747,19 +747,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>46.35468792890296</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,10 +798,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>89.29749682216323</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>100.0376190809316</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>17.08862566918258</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>231.863583504628</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>263.2420339516666</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>263.2420339516666</v>
@@ -1145,7 +1145,7 @@
         <v>263.2420339516666</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>227.7664834517757</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1260,19 +1260,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>11.52217291123795</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>125.6384340685011</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>159.8350691069749</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1385,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>82.59930608814258</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>257.0152846411277</v>
       </c>
     </row>
     <row r="12">
@@ -1461,10 +1461,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231958</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I12" t="n">
         <v>61.42221998250819</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>335.3138620892168</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>115.2511029009962</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
@@ -1667,13 +1667,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1698,13 +1698,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325221</v>
       </c>
       <c r="T15" t="n">
         <v>196.8897623984489</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.3768222575565</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,10 +1783,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228949</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>218.3734398702018</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>357.4847324689627</v>
+        <v>351.2391879744738</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2178,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2226,7 +2226,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>155.4526127311942</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="23">
@@ -2318,19 +2318,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>153.1085094010405</v>
+        <v>371.7293199355301</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2415,7 +2415,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2479,22 +2479,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>81.25819606329408</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,22 +2555,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>346.8766818975658</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,28 +2600,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>20.75501798238431</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>43.99240337009266</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>144.4566831271803</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>199.8692462101356</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,25 +2837,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2889,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>153.8100533453327</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>11.6788446020108</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>242.7751466118114</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T33" t="n">
         <v>196.8897623984489</v>
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>92.00803688215797</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>230.2634979541055</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>89.00389277357158</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>4.838563623422169</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>207.2254923650022</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>130.7784572765346</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>22.82434971974418</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3600,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>11.67884460201108</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>112.8566199863818</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>238.463128590769</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>208.2691746069202</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>79.3292071608917</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>9.790440613649634</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>57.6659554946722</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4022,10 +4022,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
@@ -4034,7 +4034,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>178.6441325292466</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,16 +4186,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>17.76048959327959</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>720.6083788665362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C2" t="n">
-        <v>477.1596022224361</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D2" t="n">
-        <v>233.7108255783361</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>318.9581538727056</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>318.9581538727056</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>318.9581538727056</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>318.9581538727056</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4437,22 +4437,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V3" t="n">
-        <v>728.9050472788936</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W3" t="n">
-        <v>485.4562706347935</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X3" t="n">
-        <v>395.2567788952347</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.4964801302808</v>
+        <v>318.9581538727056</v>
       </c>
     </row>
     <row r="4">
@@ -4483,10 +4483,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>710.516763498309</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C5" t="n">
-        <v>467.067986854209</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D5" t="n">
-        <v>467.067986854209</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E5" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="G5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>122.2961490211355</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>302.3720006057941</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>519.3476278686983</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759377</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185857</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665364</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665364</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.516763498309</v>
+        <v>477.1596022224363</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>397.4029371266039</v>
+        <v>259.0600686093463</v>
       </c>
       <c r="C6" t="n">
-        <v>222.9499078454769</v>
+        <v>259.0600686093463</v>
       </c>
       <c r="D6" t="n">
-        <v>222.9499078454769</v>
+        <v>259.0600686093463</v>
       </c>
       <c r="E6" t="n">
-        <v>222.9499078454769</v>
+        <v>259.0600686093463</v>
       </c>
       <c r="F6" t="n">
-        <v>222.9499078454769</v>
+        <v>259.0600686093463</v>
       </c>
       <c r="G6" t="n">
-        <v>222.9499078454769</v>
+        <v>120.3292431919618</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>473.4149733950738</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>712.0191193839564</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.0191193839564</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973073</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="R6" t="n">
-        <v>946.7959174609568</v>
+        <v>862.8876260635224</v>
       </c>
       <c r="S6" t="n">
-        <v>773.3785729116257</v>
+        <v>689.4702815141912</v>
       </c>
       <c r="T6" t="n">
-        <v>773.3785729116257</v>
+        <v>487.2836868729573</v>
       </c>
       <c r="U6" t="n">
-        <v>773.3785729116257</v>
+        <v>259.0600686093463</v>
       </c>
       <c r="V6" t="n">
-        <v>773.3785729116257</v>
+        <v>259.0600686093463</v>
       </c>
       <c r="W6" t="n">
-        <v>773.3785729116257</v>
+        <v>259.0600686093463</v>
       </c>
       <c r="X6" t="n">
-        <v>773.3785729116257</v>
+        <v>259.0600686093463</v>
       </c>
       <c r="Y6" t="n">
-        <v>565.6182741466719</v>
+        <v>259.0600686093463</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.7755792979732</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>46.59526811792571</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>85.78330631014789</v>
       </c>
       <c r="N7" t="n">
         <v>129.4741569655842</v>
@@ -4744,31 +4744,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>818.7624959030018</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="C8" t="n">
-        <v>552.8614515073789</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="D8" t="n">
-        <v>552.8614515073789</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="E8" t="n">
-        <v>286.9604071117561</v>
+        <v>521.1660470154206</v>
       </c>
       <c r="F8" t="n">
-        <v>21.05936271613333</v>
+        <v>255.2650026197978</v>
       </c>
       <c r="G8" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="H8" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="I8" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="J8" t="n">
         <v>21.05936271613333</v>
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>195.5123919972604</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C9" t="n">
         <v>21.05936271613333</v>
@@ -4881,22 +4881,22 @@
         <v>21.05936271613333</v>
       </c>
       <c r="J9" t="n">
-        <v>24.9501803568321</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K9" t="n">
-        <v>158.2210505399123</v>
+        <v>154.3302328992135</v>
       </c>
       <c r="L9" t="n">
-        <v>398.8245784347747</v>
+        <v>394.933760794076</v>
       </c>
       <c r="M9" t="n">
-        <v>531.9454581020244</v>
+        <v>600.5536970360757</v>
       </c>
       <c r="N9" t="n">
-        <v>792.5550717141743</v>
+        <v>600.5536970360757</v>
       </c>
       <c r="O9" t="n">
-        <v>1052.968135806666</v>
+        <v>860.9667611285678</v>
       </c>
       <c r="P9" t="n">
         <v>1052.968135806666</v>
@@ -4908,25 +4908,25 @@
         <v>1052.968135806666</v>
       </c>
       <c r="S9" t="n">
-        <v>1041.329577310466</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T9" t="n">
-        <v>839.3445197255423</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U9" t="n">
-        <v>611.1241909677472</v>
+        <v>926.0606266465643</v>
       </c>
       <c r="V9" t="n">
-        <v>611.1241909677472</v>
+        <v>690.9085184148216</v>
       </c>
       <c r="W9" t="n">
-        <v>611.1241909677472</v>
+        <v>436.6711616866201</v>
       </c>
       <c r="X9" t="n">
-        <v>403.2726907622143</v>
+        <v>228.8196614810873</v>
       </c>
       <c r="Y9" t="n">
-        <v>195.5123919972604</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="C10" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="D10" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="E10" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="F10" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="G10" t="n">
         <v>21.05936271613333</v>
@@ -4993,19 +4993,19 @@
         <v>182.5089274706535</v>
       </c>
       <c r="U10" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="V10" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="W10" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="X10" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706535</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1579.049931616194</v>
+        <v>1995.909162857191</v>
       </c>
       <c r="C11" t="n">
-        <v>1210.087414675782</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D11" t="n">
-        <v>1210.087414675782</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E11" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F11" t="n">
-        <v>799.1015098861747</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H11" t="n">
         <v>53.94298182036444</v>
@@ -5066,25 +5066,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V11" t="n">
-        <v>1662.483574129469</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W11" t="n">
-        <v>1579.049931616194</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X11" t="n">
-        <v>1579.049931616194</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="Y11" t="n">
-        <v>1579.049931616194</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="12">
@@ -5109,7 +5109,7 @@
         <v>359.3385232961338</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
@@ -5130,13 +5130,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1995.909162857192</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="C14" t="n">
-        <v>1626.94664591678</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="D14" t="n">
-        <v>1268.68094731003</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E14" t="n">
-        <v>882.8926947117852</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5300,28 +5300,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T14" t="n">
-        <v>2580.733835562671</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2326.972050200762</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>1995.909162857192</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W14" t="n">
-        <v>1995.909162857192</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X14" t="n">
-        <v>1995.909162857192</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="Y14" t="n">
-        <v>1995.909162857192</v>
+        <v>546.1098286224635</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
         <v>221.4284102424006</v>
@@ -5352,28 +5352,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5382,16 +5382,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5419,22 +5419,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816297</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H16" t="n">
         <v>235.9284171545819</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2476.569858826099</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C17" t="n">
-        <v>2107.607341885688</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D17" t="n">
-        <v>1749.341643278937</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>792.1933911785527</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>381.2074863889451</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5549,16 +5549,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>2476.569858826099</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>2476.569858826099</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>2476.569858826099</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.569858826099</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5631,10 +5631,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5704,19 +5704,19 @@
         <v>500.820796875036</v>
       </c>
       <c r="U19" t="n">
-        <v>211.6471865296039</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V19" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W19" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X19" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y19" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1580.775345511217</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C20" t="n">
-        <v>1211.812828570805</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D20" t="n">
-        <v>1211.812828570805</v>
+        <v>819.7159451700466</v>
       </c>
       <c r="E20" t="n">
-        <v>826.0245759725606</v>
+        <v>819.7159451700466</v>
       </c>
       <c r="F20" t="n">
-        <v>415.038671182953</v>
+        <v>408.730040380439</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733126</v>
@@ -5789,13 +5789,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>2344.380435748108</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
-        <v>1970.914677487028</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y20" t="n">
-        <v>1580.775345511217</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="21">
@@ -5826,46 +5826,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K21" t="n">
-        <v>266.206002764199</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>210.9658229629848</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5941,19 +5941,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X22" t="n">
-        <v>210.9658229629848</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y22" t="n">
-        <v>210.9658229629848</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1005.372199209267</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C23" t="n">
-        <v>1005.372199209267</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="D23" t="n">
-        <v>1005.372199209267</v>
+        <v>840.4130481610125</v>
       </c>
       <c r="E23" t="n">
-        <v>619.5839466110231</v>
+        <v>840.4130481610125</v>
       </c>
       <c r="F23" t="n">
-        <v>208.5980418214155</v>
+        <v>429.427143371405</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036445</v>
@@ -5987,13 +5987,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6011,28 +6011,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2134.880026519315</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>1782.111371249201</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X23" t="n">
-        <v>1782.111371249201</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y23" t="n">
-        <v>1391.972039273389</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="24">
@@ -6042,67 +6042,67 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>430.0992512117053</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
         <v>53.94298182036445</v>
@@ -6178,19 +6178,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2255.520561484594</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="C26" t="n">
-        <v>1886.558044544182</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D26" t="n">
-        <v>1528.292345937431</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E26" t="n">
-        <v>1142.504093339187</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F26" t="n">
-        <v>731.5181885495797</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036445</v>
@@ -6230,7 +6230,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6248,28 +6248,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2500.006938703722</v>
       </c>
       <c r="U26" t="n">
-        <v>2642.120401548716</v>
+        <v>2246.245153341813</v>
       </c>
       <c r="V26" t="n">
-        <v>2642.120401548716</v>
+        <v>1915.182265998242</v>
       </c>
       <c r="W26" t="n">
-        <v>2642.120401548716</v>
+        <v>1562.413610728128</v>
       </c>
       <c r="X26" t="n">
-        <v>2642.120401548716</v>
+        <v>1188.947852467049</v>
       </c>
       <c r="Y26" t="n">
-        <v>2642.120401548716</v>
+        <v>798.8085204912368</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6342,10 +6342,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>98.37975290126613</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>98.37975290126613</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>98.37975290126613</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>98.37975290126613</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>98.37975290126613</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036445</v>
@@ -6412,22 +6412,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V28" t="n">
-        <v>473.4444960005474</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W28" t="n">
-        <v>184.0273259635867</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>280.0282177315058</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1470.569074795015</v>
+        <v>576.3714747656866</v>
       </c>
       <c r="C29" t="n">
-        <v>1470.569074795015</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.68094731003</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117852</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6485,28 +6485,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U29" t="n">
-        <v>2247.308246834948</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V29" t="n">
-        <v>2247.308246834948</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W29" t="n">
-        <v>2247.308246834948</v>
+        <v>1485.892406545184</v>
       </c>
       <c r="X29" t="n">
-        <v>2247.308246834948</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y29" t="n">
-        <v>1857.168914859137</v>
+        <v>722.2873163082929</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6579,10 +6579,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2022.963088632153</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.963088632153</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632153</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>2255.552480504987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>2255.552480504987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>2255.552480504987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>2243.755667775683</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X31" t="n">
-        <v>2243.755667775683</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y31" t="n">
-        <v>2022.963088632153</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1394.624369323446</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C32" t="n">
-        <v>1394.624369323446</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D32" t="n">
-        <v>1036.358670716696</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E32" t="n">
-        <v>1036.358670716696</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F32" t="n">
-        <v>625.3727659270879</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
@@ -6704,7 +6704,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6731,19 +6731,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2451.921670198211</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>2120.85878285464</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W32" t="n">
-        <v>1768.090127584526</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X32" t="n">
-        <v>1394.624369323446</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y32" t="n">
-        <v>1394.624369323446</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
@@ -6783,19 +6783,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6804,16 +6804,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C34" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>578.0123447940985</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>430.0992512117053</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>283.209303713795</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>283.209303713795</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X34" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y34" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1241.158393318536</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C35" t="n">
-        <v>1241.158393318536</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D35" t="n">
-        <v>882.8926947117852</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036445</v>
@@ -6941,7 +6941,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6959,28 +6959,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2057.295728843236</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>1704.527073573122</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X35" t="n">
-        <v>1331.061315312042</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y35" t="n">
-        <v>1241.158393318536</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>337.1618402196266</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="C37" t="n">
-        <v>337.1618402196266</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="D37" t="n">
-        <v>337.1618402196266</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="E37" t="n">
-        <v>337.1618402196266</v>
+        <v>2321.927810104431</v>
       </c>
       <c r="F37" t="n">
-        <v>190.2718927217162</v>
+        <v>2321.927810104431</v>
       </c>
       <c r="G37" t="n">
-        <v>190.2718927217162</v>
+        <v>2317.040372100974</v>
       </c>
       <c r="H37" t="n">
-        <v>190.2718927217162</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T37" t="n">
-        <v>518.8103050498663</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="U37" t="n">
-        <v>518.8103050498663</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="V37" t="n">
-        <v>518.8103050498663</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="W37" t="n">
-        <v>518.8103050498663</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="X37" t="n">
-        <v>518.8103050498663</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="Y37" t="n">
-        <v>518.8103050498663</v>
+        <v>2469.840903686824</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>982.8165910026955</v>
+        <v>1226.657559460833</v>
       </c>
       <c r="C38" t="n">
-        <v>982.8165910026955</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D38" t="n">
-        <v>850.7171392082162</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E38" t="n">
-        <v>464.928886609972</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036444</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7205,19 +7205,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2443.387305656314</v>
+        <v>2674.09419231141</v>
       </c>
       <c r="V38" t="n">
-        <v>2112.324418312743</v>
+        <v>2343.031304967839</v>
       </c>
       <c r="W38" t="n">
-        <v>1759.555763042629</v>
+        <v>1990.262649697725</v>
       </c>
       <c r="X38" t="n">
-        <v>1759.555763042629</v>
+        <v>1616.796891436645</v>
       </c>
       <c r="Y38" t="n">
-        <v>1369.416431066817</v>
+        <v>1226.657559460833</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7257,43 +7257,43 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7357,25 +7357,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W40" t="n">
-        <v>614.1323983616041</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X40" t="n">
-        <v>614.1323983616041</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y40" t="n">
-        <v>393.339819218074</v>
+        <v>65.73979454966857</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1704.527073573122</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C41" t="n">
-        <v>1335.56455663271</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D41" t="n">
-        <v>977.2988580259596</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E41" t="n">
-        <v>591.5106054277153</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>591.5106054277153</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7433,28 +7433,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>2057.295728843236</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W41" t="n">
-        <v>1704.527073573122</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X41" t="n">
-        <v>1704.527073573122</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y41" t="n">
-        <v>1704.527073573122</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598704</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>358.5813018857447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C43" t="n">
-        <v>358.5813018857447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D43" t="n">
-        <v>358.5813018857447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E43" t="n">
-        <v>358.5813018857447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F43" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7594,25 +7594,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>647.9984719227052</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>647.9984719227052</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>647.9984719227052</v>
+        <v>718.2396502532528</v>
       </c>
       <c r="V43" t="n">
-        <v>647.9984719227052</v>
+        <v>718.2396502532528</v>
       </c>
       <c r="W43" t="n">
-        <v>358.5813018857447</v>
+        <v>428.8224802162921</v>
       </c>
       <c r="X43" t="n">
-        <v>358.5813018857447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y43" t="n">
-        <v>358.5813018857447</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1838.661061815299</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C44" t="n">
-        <v>1780.41262192169</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D44" t="n">
-        <v>1422.14692331494</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E44" t="n">
         <v>1036.358670716696</v>
@@ -7652,7 +7652,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7673,25 +7673,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U44" t="n">
-        <v>2169.723949158869</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V44" t="n">
-        <v>1838.661061815299</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="W44" t="n">
-        <v>1838.661061815299</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="X44" t="n">
-        <v>1838.661061815299</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="Y44" t="n">
-        <v>1838.661061815299</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="45">
@@ -7701,73 +7701,73 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>528.5406308981343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C46" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D46" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E46" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F46" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G46" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
         <v>53.94298182036444</v>
@@ -7834,22 +7834,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>710.189095728374</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>710.189095728374</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V46" t="n">
-        <v>710.189095728374</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>710.189095728374</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X46" t="n">
-        <v>710.189095728374</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y46" t="n">
-        <v>710.189095728374</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
   </sheetData>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902122</v>
       </c>
       <c r="N6" t="n">
-        <v>292.5201795090609</v>
+        <v>372.3560009609924</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,16 +8538,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>264.057275375142</v>
+        <v>337.2886456526674</v>
       </c>
       <c r="N9" t="n">
-        <v>381.7094952808119</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>124.5219861368073</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>133.663080786811</v>
@@ -8778,7 +8778,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451752</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,19 +9003,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050812</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9179,7 +9179,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K27" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,7 +10674,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10905,7 +10905,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>251.4045252050811</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L42" t="n">
-        <v>251.4045252050811</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22562,10 +22562,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>224.5166150293527</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22589,13 +22589,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22610,7 +22610,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22623,7 +22623,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22635,19 +22635,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>98.71452446448092</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22677,7 +22677,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -22686,10 +22686,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>116.4754883813142</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22781,25 +22781,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858214</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22826,7 +22826,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22844,13 +22844,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.2266798397538</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>145.2236497783944</v>
       </c>
     </row>
     <row r="6">
@@ -22860,10 +22860,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22875,13 +22875,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>12.19782515556486</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22908,16 +22908,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>83.06920848346056</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22929,7 +22929,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22984,10 +22984,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,13 +23018,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>150.8702581588526</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>102.030857819341</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>91.44100766901636</v>
       </c>
       <c r="E8" t="n">
         <v>118.6883361205952</v>
@@ -23033,7 +23033,7 @@
         <v>143.6340117900448</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2102214038314</v>
+        <v>187.4437379520557</v>
       </c>
       <c r="H8" t="n">
         <v>338.5273214908784</v>
@@ -23042,7 +23042,7 @@
         <v>206.9091621893709</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852153</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23100,7 +23100,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23148,19 +23148,19 @@
         <v>97.08446202703756</v>
       </c>
       <c r="S9" t="n">
-        <v>159.2415484220475</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>100.2996914017162</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -23191,7 +23191,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>8.11441070893386</v>
       </c>
       <c r="H10" t="n">
         <v>161.8582038473137</v>
@@ -23233,7 +23233,7 @@
         <v>227.7682732010226</v>
       </c>
       <c r="U10" t="n">
-        <v>126.4816966381041</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>266.6416626292704</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>129.2226540149259</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>47.41997957426378</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,13 +23540,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>101.1972174566616</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890127</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
@@ -23729,13 +23729,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,13 +23744,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>89.79231049790008</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23789,16 +23789,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>109.3788185999331</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>23.70481751979023</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23908,10 +23908,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,7 +23932,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,22 +23966,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>56.29943755183228</v>
+        <v>62.54498204632119</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24029,7 +24029,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>11.79420836743367</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,10 +24145,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,7 +24169,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24181,7 +24181,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,10 +24190,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="23">
@@ -24206,19 +24206,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>260.6756606197545</v>
+        <v>42.05485008526489</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,10 +24251,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
@@ -24263,7 +24263,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24367,25 +24367,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>64.16285195963717</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,7 +24406,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24418,13 +24418,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24443,22 +24443,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>66.90748812322914</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24488,28 +24488,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>195.6933023752735</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24613,16 +24613,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>123.3173988889583</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24652,22 +24652,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>96.92615468724708</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24677,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>238.2771585363003</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>154.8137954105473</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,22 +24728,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>26.02192683660459</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,10 +24856,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,16 +24880,16 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>274.8441537345802</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24971,19 +24971,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>8.449020896477919</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25078,25 +25078,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>64.16285195963718</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25117,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>56.01837628787223</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25151,22 +25151,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25208,19 +25208,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>297.234045882482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25318,22 +25318,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>162.4712386356287</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25363,7 +25363,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>17.80961309308208</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25388,22 +25388,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>223.9045843441484</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25445,7 +25445,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>228.3998177885451</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25454,7 +25454,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>168.1531355799262</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25564,13 +25564,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,16 +25591,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>173.6663783502092</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,25 +25625,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>144.2707130727116</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>205.5149954138748</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25682,19 +25682,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25752,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25801,13 +25801,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,19 +25828,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>132.8163317891272</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>276.4914336283281</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25862,16 +25862,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>307.6069362763353</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>149.1081259408883</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,13 +26038,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,7 +26065,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26074,16 +26074,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>207.2746158648047</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457060.939351308</v>
+        <v>457060.9393513079</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>457060.9393513082</v>
+        <v>457060.9393513079</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>476112.7944668498</v>
+        <v>476112.7944668496</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123612</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123615</v>
       </c>
     </row>
     <row r="15">
@@ -26332,13 +26332,13 @@
         <v>245779.7185133939</v>
       </c>
       <c r="I2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133937</v>
       </c>
       <c r="J2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="K2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="L2" t="n">
         <v>245779.7185133939</v>
@@ -26347,13 +26347,13 @@
         <v>245779.7185133939</v>
       </c>
       <c r="N2" t="n">
-        <v>245779.7185133937</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="O2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="P2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26613.587572663</v>
+        <v>26613.58757266297</v>
       </c>
       <c r="E3" t="n">
         <v>407720.4376835743</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>16565.16787800056</v>
+        <v>16958.01308307726</v>
       </c>
       <c r="E4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="F4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="G4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="H4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="I4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="J4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="K4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="L4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="M4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="N4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="O4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="P4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>48281.26876376168</v>
       </c>
       <c r="D5" t="n">
         <v>50134.40740683334</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4336.588039112197</v>
+        <v>-4728.818284657755</v>
       </c>
       <c r="C6" t="n">
-        <v>76432.84349243555</v>
+        <v>76040.61324689003</v>
       </c>
       <c r="D6" t="n">
-        <v>54025.9651397511</v>
+        <v>53633.11993467441</v>
       </c>
       <c r="E6" t="n">
-        <v>-228985.9102937859</v>
+        <v>-229401.1248032532</v>
       </c>
       <c r="F6" t="n">
-        <v>178734.5273897885</v>
+        <v>178319.3128803212</v>
       </c>
       <c r="G6" t="n">
-        <v>178734.5273897884</v>
+        <v>178319.3128803212</v>
       </c>
       <c r="H6" t="n">
-        <v>178734.5273897884</v>
+        <v>178319.3128803212</v>
       </c>
       <c r="I6" t="n">
-        <v>178734.5273897884</v>
+        <v>178319.312880321</v>
       </c>
       <c r="J6" t="n">
-        <v>115674.5847906822</v>
+        <v>115259.3702812149</v>
       </c>
       <c r="K6" t="n">
-        <v>178734.5273897884</v>
+        <v>178319.3128803211</v>
       </c>
       <c r="L6" t="n">
-        <v>173108.8851612628</v>
+        <v>172693.6706517955</v>
       </c>
       <c r="M6" t="n">
-        <v>76300.40969915329</v>
+        <v>75885.19518968603</v>
       </c>
       <c r="N6" t="n">
-        <v>178734.5273897883</v>
+        <v>178319.3128803212</v>
       </c>
       <c r="O6" t="n">
-        <v>178734.5273897884</v>
+        <v>178319.3128803211</v>
       </c>
       <c r="P6" t="n">
-        <v>178734.5273897883</v>
+        <v>178319.3128803212</v>
       </c>
     </row>
   </sheetData>
@@ -26790,7 +26790,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="D4" t="n">
         <v>263.2420339516666</v>
@@ -26799,13 +26799,13 @@
         <v>674.2872727545555</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
@@ -26814,7 +26814,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
@@ -26823,10 +26823,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545555</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.22774507400754</v>
+        <v>22.22774507400743</v>
       </c>
       <c r="E4" t="n">
         <v>411.0452388028889</v>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400754</v>
+        <v>22.22774507400743</v>
       </c>
       <c r="M4" t="n">
         <v>411.0452388028889</v>
@@ -31987,13 +31987,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32011,22 +32011,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32099,16 +32099,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,13 +32169,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32184,7 +32184,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32224,13 +32224,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32248,22 +32248,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32303,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32336,16 +32336,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,13 +32406,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32421,7 +32421,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32461,13 +32461,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32485,22 +32485,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32573,16 +32573,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32619,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32643,13 +32643,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32658,7 +32658,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32698,13 +32698,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32722,22 +32722,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32810,16 +32810,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32856,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32880,13 +32880,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32895,7 +32895,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32935,13 +32935,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32959,22 +32959,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33047,16 +33047,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33093,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33117,13 +33117,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33132,7 +33132,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33172,13 +33172,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33196,22 +33196,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33284,16 +33284,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33330,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33354,13 +33354,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33369,7 +33369,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33409,13 +33409,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33433,22 +33433,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33521,16 +33521,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33567,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,13 +33591,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33606,7 +33606,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33646,13 +33646,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33670,22 +33670,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33758,16 +33758,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33804,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,13 +33828,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33843,7 +33843,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33883,13 +33883,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33907,22 +33907,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33995,16 +33995,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34041,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,13 +34065,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34080,7 +34080,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34120,13 +34120,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34144,22 +34144,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34232,16 +34232,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,13 +34302,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34317,7 +34317,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,13 +34357,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34381,22 +34381,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34469,16 +34469,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,13 +34539,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34554,7 +34554,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N3" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34796,7 +34796,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681939</v>
       </c>
       <c r="N6" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.930118828988654</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>134.6170405889698</v>
@@ -35258,16 +35258,16 @@
         <v>243.0338665604671</v>
       </c>
       <c r="M9" t="n">
-        <v>134.4655350174239</v>
+        <v>207.6969052949493</v>
       </c>
       <c r="N9" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>263.0434990833253</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35498,7 +35498,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245897</v>
@@ -35507,7 +35507,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35659,10 +35659,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730077</v>
       </c>
       <c r="M15" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35820,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35896,10 +35896,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35975,13 +35975,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36057,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36133,10 +36133,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36212,13 +36212,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36294,7 +36294,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36370,10 +36370,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36449,13 +36449,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36531,7 +36531,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36607,10 +36607,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36686,13 +36686,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36768,7 +36768,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36844,10 +36844,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36923,13 +36923,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37005,7 +37005,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37081,10 +37081,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
         <v>529.4413268262938</v>
@@ -37160,13 +37160,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37242,7 +37242,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37318,10 +37318,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37394,16 +37394,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37479,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37555,10 +37555,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>289.2671274730077</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
@@ -37634,13 +37634,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37716,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181304</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37792,10 +37792,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L42" t="n">
-        <v>289.2671274730077</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
         <v>529.4413268262938</v>
@@ -37871,7 +37871,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37953,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38029,10 +38029,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38108,13 +38108,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38190,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>743870.5505813216</v>
+        <v>784180.4057267143</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335690.3293889765</v>
+        <v>337002.2430554236</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10911602.29072687</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8139267.539434056</v>
+        <v>8121653.028417467</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>114.9581870864144</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -701,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,13 +743,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>87.20907807295006</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>46.35468792890296</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -756,7 +758,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -789,13 +791,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.82778746869526</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776592</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -972,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.0376190809316</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1038,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>85.31372784089217</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1136,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>227.7664834517757</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852153</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.19305615617969</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1224,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>108.9193184962176</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>125.6384340685011</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1303,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>159.8350691069749</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>163.3224055697213</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>257.0152846411277</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1461,10 +1463,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
         <v>61.42221998250819</v>
@@ -1534,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>144.5450396847797</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.3138620892168</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1619,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -1664,16 +1666,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>298.5943754452419</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1734,7 +1736,7 @@
         <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325221</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
         <v>196.8897623984489</v>
@@ -1853,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>156.4823443382506</v>
       </c>
       <c r="G17" t="n">
-        <v>323.9918595228949</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1907,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1923,7 +1925,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883154</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1941,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2011,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2053,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>190.2713935802968</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>44.17579562641266</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2087,16 +2089,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>351.2391879744738</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>21.06378739764988</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2208,7 +2210,7 @@
         <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T21" t="n">
         <v>196.8897623984489</v>
@@ -2239,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>28.21611991813174</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.7498680634315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2321,16 +2323,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>323.9918595228955</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>371.7293199355301</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2378,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2530,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2558,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>20.75501798238431</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>4.55385834063773</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>43.99240337009266</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>56.88196987815806</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>144.4566831271803</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2798,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>357.4847324689622</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2889,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2928,7 +2930,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>232.8005871494245</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8100533453327</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>99.34508049624266</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2992,13 +2994,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3092,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3123,10 +3125,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>162.5776147681365</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>230.2634979541055</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3278,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>323.9918595228954</v>
+        <v>325.8862715279864</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3430,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>4.838563623422169</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>94.6392697836404</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3509,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3518,7 +3520,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>80.83194702764862</v>
       </c>
       <c r="U38" t="n">
-        <v>22.82434971974418</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>11.67884460201108</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>238.463128590769</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3831,7 +3833,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H42" t="n">
         <v>104.3883541553076</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3898,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3952,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>9.790440613649634</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,25 +3979,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>178.6441325292466</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4189,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364023</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348.0024326625565</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C2" t="n">
-        <v>348.0024326625565</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D2" t="n">
-        <v>348.0024326625565</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E2" t="n">
-        <v>348.0024326625565</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F2" t="n">
-        <v>348.0024326625565</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G2" t="n">
-        <v>348.0024326625565</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>348.0024326625565</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>348.0024326625565</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>318.9581538727056</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="C3" t="n">
-        <v>318.9581538727056</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="D3" t="n">
-        <v>318.9581538727056</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>318.9581538727056</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>272.1352367728036</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>133.4044113554191</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4410,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4437,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>526.7184526376595</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>526.7184526376595</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>526.7184526376595</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>318.9581538727056</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="4">
@@ -4483,10 +4485,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>113.583345248266</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>233.7108255783361</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C5" t="n">
-        <v>233.7108255783361</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D5" t="n">
-        <v>233.7108255783361</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E5" t="n">
-        <v>233.7108255783361</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021274</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211355</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057941</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686983</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759377</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185857</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106367</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106367</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106367</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106367</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106367</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106367</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106367</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665364</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665364</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y5" t="n">
-        <v>477.1596022224363</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>259.0600686093463</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C6" t="n">
-        <v>259.0600686093463</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D6" t="n">
-        <v>259.0600686093463</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E6" t="n">
-        <v>259.0600686093463</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>259.0600686093463</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>120.3292431919618</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021274</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950738</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>712.0191193839564</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>712.0191193839564</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106367</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141912</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729573</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093463</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>259.0600686093463</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>259.0600686093463</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>259.0600686093463</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="Y6" t="n">
-        <v>259.0600686093463</v>
+        <v>670.1213740781145</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.7755792979732</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>46.59526811792571</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014789</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
         <v>129.4741569655842</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1052.968135806666</v>
+        <v>19.28114311021273</v>
       </c>
       <c r="C8" t="n">
-        <v>1052.968135806666</v>
+        <v>19.28114311021273</v>
       </c>
       <c r="D8" t="n">
-        <v>787.0670914110435</v>
+        <v>19.28114311021273</v>
       </c>
       <c r="E8" t="n">
-        <v>521.1660470154206</v>
+        <v>19.28114311021273</v>
       </c>
       <c r="F8" t="n">
-        <v>255.2650026197978</v>
+        <v>19.28114311021273</v>
       </c>
       <c r="G8" t="n">
-        <v>25.19784761800419</v>
+        <v>19.28114311021273</v>
       </c>
       <c r="H8" t="n">
-        <v>25.19784761800419</v>
+        <v>19.28114311021273</v>
       </c>
       <c r="I8" t="n">
-        <v>25.19784761800419</v>
+        <v>19.28114311021273</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021273</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573682</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142361</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098024</v>
+        <v>519.3476278686979</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369329</v>
+        <v>725.2021500759374</v>
       </c>
       <c r="O8" t="n">
-        <v>950.137187388514</v>
+        <v>874.3971002185855</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806667</v>
+        <v>964.0571555106364</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806666</v>
+        <v>953.9655401424094</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806666</v>
+        <v>942.659422812935</v>
       </c>
       <c r="S8" t="n">
-        <v>1052.968135806666</v>
+        <v>731.5280393924851</v>
       </c>
       <c r="T8" t="n">
-        <v>1052.968135806666</v>
+        <v>506.178696398413</v>
       </c>
       <c r="U8" t="n">
-        <v>1052.968135806666</v>
+        <v>506.178696398413</v>
       </c>
       <c r="V8" t="n">
-        <v>1052.968135806666</v>
+        <v>506.178696398413</v>
       </c>
       <c r="W8" t="n">
-        <v>1052.968135806666</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X8" t="n">
-        <v>1052.968135806666</v>
+        <v>19.28114311021273</v>
       </c>
       <c r="Y8" t="n">
-        <v>1052.968135806666</v>
+        <v>19.28114311021273</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.05936271613333</v>
+        <v>685.8223048580254</v>
       </c>
       <c r="C9" t="n">
-        <v>21.05936271613333</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="D9" t="n">
-        <v>21.05936271613333</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E9" t="n">
-        <v>21.05936271613333</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F9" t="n">
-        <v>21.05936271613333</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613333</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613333</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021273</v>
       </c>
       <c r="K9" t="n">
-        <v>154.3302328992135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>394.933760794076</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>600.5536970360757</v>
+        <v>542.8095319084032</v>
       </c>
       <c r="N9" t="n">
-        <v>600.5536970360757</v>
+        <v>542.8095319084032</v>
       </c>
       <c r="O9" t="n">
-        <v>860.9667611285678</v>
+        <v>781.4136778972857</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106364</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106364</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106364</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806666</v>
+        <v>854.0376418780934</v>
       </c>
       <c r="T9" t="n">
-        <v>1052.968135806666</v>
+        <v>854.0376418780934</v>
       </c>
       <c r="U9" t="n">
-        <v>926.0606266465643</v>
+        <v>854.0376418780934</v>
       </c>
       <c r="V9" t="n">
-        <v>690.9085184148216</v>
+        <v>854.0376418780934</v>
       </c>
       <c r="W9" t="n">
-        <v>436.6711616866201</v>
+        <v>854.0376418780934</v>
       </c>
       <c r="X9" t="n">
-        <v>228.8196614810873</v>
+        <v>854.0376418780934</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.05936271613333</v>
+        <v>854.0376418780934</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613333</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613333</v>
+        <v>41.77557929797319</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021273</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360296</v>
+        <v>46.59526811792571</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955239</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.0877739486497</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716483</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1995.909162857191</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="C11" t="n">
-        <v>1626.94664591678</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="D11" t="n">
-        <v>1268.680947310029</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117851</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5063,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U11" t="n">
-        <v>2642.120401548715</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V11" t="n">
-        <v>2642.120401548715</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W11" t="n">
-        <v>2642.120401548715</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X11" t="n">
-        <v>2642.120401548715</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y11" t="n">
-        <v>2382.509002921313</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5157,10 +5159,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064342</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064342</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816298</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837194</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220518</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I13" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5218,31 +5220,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>207.4089578252748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="C14" t="n">
-        <v>207.4089578252748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D14" t="n">
-        <v>207.4089578252748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E14" t="n">
-        <v>207.4089578252748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F14" t="n">
-        <v>207.4089578252748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G14" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5300,10 +5302,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
         <v>2247.308246834948</v>
@@ -5312,16 +5314,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>1662.483574129469</v>
+        <v>1691.935981225321</v>
       </c>
       <c r="W14" t="n">
-        <v>1309.714918859355</v>
+        <v>1339.167325955207</v>
       </c>
       <c r="X14" t="n">
-        <v>936.2491605982752</v>
+        <v>1339.167325955207</v>
       </c>
       <c r="Y14" t="n">
-        <v>546.1098286224635</v>
+        <v>1339.167325955207</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598704</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5382,16 +5384,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5431,10 +5433,10 @@
         <v>235.9284171545819</v>
       </c>
       <c r="I16" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5489,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1546.944160717209</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C17" t="n">
-        <v>1177.981643776797</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D17" t="n">
-        <v>1177.981643776797</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="E17" t="n">
-        <v>792.1933911785527</v>
+        <v>1110.630459970126</v>
       </c>
       <c r="F17" t="n">
-        <v>381.2074863889451</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5537,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X17" t="n">
-        <v>2323.683332757142</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y17" t="n">
-        <v>1933.54400078133</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5631,10 +5633,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5701,22 +5703,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036444</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036444</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036444</v>
+        <v>245.45494510253</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1546.944160717209</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C20" t="n">
-        <v>1177.981643776797</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D20" t="n">
-        <v>819.7159451700466</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E20" t="n">
-        <v>819.7159451700466</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F20" t="n">
-        <v>408.730040380439</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5783,19 +5785,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2675.872538091303</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>2675.872538091303</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018222</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="X20" t="n">
-        <v>2323.683332757142</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="Y20" t="n">
-        <v>1933.54400078133</v>
+        <v>2323.103882821189</v>
       </c>
     </row>
     <row r="21">
@@ -5826,13 +5828,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
         <v>713.8062203571349</v>
@@ -5850,10 +5852,10 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
         <v>2488.762748073964</v>
@@ -5884,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>372.9958041606071</v>
+        <v>398.3338608103785</v>
       </c>
       <c r="C22" t="n">
-        <v>204.0596212327002</v>
+        <v>398.3338608103785</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036444</v>
+        <v>398.3338608103785</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036444</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5932,28 +5934,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X22" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y22" t="n">
-        <v>554.6442689908469</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1567.641263708175</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C23" t="n">
-        <v>1198.678746767763</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D23" t="n">
-        <v>840.4130481610125</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E23" t="n">
-        <v>840.4130481610125</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F23" t="n">
-        <v>429.427143371405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036445</v>
@@ -5987,13 +5989,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6026,13 +6028,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>2344.380435748108</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
-        <v>2344.380435748108</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>1954.241103772296</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="24">
@@ -6042,67 +6044,67 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6178,7 +6180,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>598.0446400632119</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V25" t="n">
         <v>343.360151857325</v>
@@ -6200,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>412.2086804271149</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="C26" t="n">
-        <v>412.2086804271149</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D26" t="n">
-        <v>53.94298182036445</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E26" t="n">
-        <v>53.94298182036445</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6248,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S26" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T26" t="n">
-        <v>2500.006938703722</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U26" t="n">
-        <v>2246.245153341813</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V26" t="n">
-        <v>1915.182265998242</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W26" t="n">
-        <v>1562.413610728128</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X26" t="n">
-        <v>1188.947852467049</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y26" t="n">
-        <v>798.8085204912368</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6281,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L27" t="n">
         <v>713.8062203571349</v>
@@ -6324,22 +6326,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6358,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.37975290126613</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C28" t="n">
-        <v>98.37975290126613</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D28" t="n">
-        <v>98.37975290126613</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E28" t="n">
-        <v>98.37975290126613</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F28" t="n">
-        <v>98.37975290126613</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6409,25 +6411,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T28" t="n">
-        <v>500.820796875036</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="U28" t="n">
-        <v>500.820796875036</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V28" t="n">
-        <v>500.820796875036</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W28" t="n">
-        <v>500.820796875036</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X28" t="n">
-        <v>500.820796875036</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y28" t="n">
-        <v>280.0282177315058</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>576.3714747656866</v>
+        <v>1580.775345511216</v>
       </c>
       <c r="C29" t="n">
-        <v>207.4089578252748</v>
+        <v>1211.812828570804</v>
       </c>
       <c r="D29" t="n">
-        <v>207.4089578252748</v>
+        <v>1211.812828570804</v>
       </c>
       <c r="E29" t="n">
-        <v>207.4089578252748</v>
+        <v>826.0245759725601</v>
       </c>
       <c r="F29" t="n">
-        <v>207.4089578252748</v>
+        <v>415.0386711829526</v>
       </c>
       <c r="G29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6485,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2169.723949158869</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>1838.661061815299</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W29" t="n">
-        <v>1485.892406545184</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X29" t="n">
-        <v>1112.426648284105</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y29" t="n">
-        <v>722.2873163082929</v>
+        <v>1580.775345511216</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036444</v>
@@ -6543,22 +6545,22 @@
         <v>53.94298182036444</v>
       </c>
       <c r="K30" t="n">
-        <v>266.2060027641985</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598704</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6576,13 +6578,13 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>351.9727148150932</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="C31" t="n">
-        <v>351.9727148150932</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="D31" t="n">
-        <v>201.8560754027575</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036444</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036444</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036444</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036444</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J31" t="n">
         <v>53.94298182036444</v>
@@ -6640,31 +6642,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="Y31" t="n">
-        <v>507.3364050629041</v>
+        <v>336.2769833124028</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1546.944160717209</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C32" t="n">
-        <v>1177.981643776797</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D32" t="n">
-        <v>1177.981643776797</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E32" t="n">
-        <v>792.1933911785532</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F32" t="n">
-        <v>381.2074863889456</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G32" t="n">
         <v>53.94298182036445</v>
@@ -6698,19 +6700,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6740,10 +6742,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X32" t="n">
-        <v>2323.683332757143</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y32" t="n">
-        <v>1933.544000781331</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="33">
@@ -6759,16 +6761,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
@@ -6777,25 +6779,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>2255.552480504987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>2022.963088632153</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V34" t="n">
-        <v>2022.963088632153</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W34" t="n">
-        <v>2022.963088632153</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>218.1627947174721</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1546.944160717209</v>
+        <v>1507.089911220685</v>
       </c>
       <c r="C35" t="n">
-        <v>1177.981643776797</v>
+        <v>1507.089911220685</v>
       </c>
       <c r="D35" t="n">
-        <v>1177.981643776797</v>
+        <v>1507.089911220685</v>
       </c>
       <c r="E35" t="n">
-        <v>792.1933911785532</v>
+        <v>1121.30165862244</v>
       </c>
       <c r="F35" t="n">
-        <v>381.2074863889456</v>
+        <v>710.3157538328328</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.683332757143</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="Y35" t="n">
-        <v>1933.544000781331</v>
+        <v>1893.689751284806</v>
       </c>
     </row>
     <row r="36">
@@ -7011,19 +7013,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7035,7 +7037,7 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
         <v>2646.935720430048</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2469.840903686824</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C37" t="n">
-        <v>2469.840903686824</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D37" t="n">
-        <v>2469.840903686824</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E37" t="n">
-        <v>2321.927810104431</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F37" t="n">
-        <v>2321.927810104431</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G37" t="n">
-        <v>2317.040372100974</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T37" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U37" t="n">
-        <v>2469.840903686824</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V37" t="n">
-        <v>2469.840903686824</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W37" t="n">
-        <v>2469.840903686824</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X37" t="n">
-        <v>2469.840903686824</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y37" t="n">
-        <v>2469.840903686824</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1226.657559460833</v>
+        <v>1168.064026826587</v>
       </c>
       <c r="C38" t="n">
-        <v>857.6950425204218</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="D38" t="n">
-        <v>857.6950425204218</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E38" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036445</v>
@@ -7172,13 +7174,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7202,22 +7204,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2615.500659677163</v>
       </c>
       <c r="U38" t="n">
-        <v>2674.09419231141</v>
+        <v>2615.500659677163</v>
       </c>
       <c r="V38" t="n">
-        <v>2343.031304967839</v>
+        <v>2284.437772333592</v>
       </c>
       <c r="W38" t="n">
-        <v>1990.262649697725</v>
+        <v>1931.669117063478</v>
       </c>
       <c r="X38" t="n">
-        <v>1616.796891436645</v>
+        <v>1558.203358802398</v>
       </c>
       <c r="Y38" t="n">
-        <v>1226.657559460833</v>
+        <v>1168.064026826587</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7251,49 +7253,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7357,25 +7359,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>286.5323736931987</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U40" t="n">
-        <v>286.5323736931987</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V40" t="n">
-        <v>286.5323736931987</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>65.73979454966857</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1637.643464250441</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C41" t="n">
-        <v>1268.68094731003</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D41" t="n">
-        <v>1268.68094731003</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036445</v>
@@ -7412,16 +7414,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7433,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.654643287636</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y41" t="n">
-        <v>1878.515311311824</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424006</v>
@@ -7488,13 +7490,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
         <v>1194.968834417902</v>
@@ -7512,19 +7514,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C43" t="n">
-        <v>200.8329293182748</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D43" t="n">
-        <v>200.8329293182748</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E43" t="n">
-        <v>200.8329293182748</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7600,19 +7602,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>718.2396502532528</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>718.2396502532528</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W43" t="n">
-        <v>428.8224802162921</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X43" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y43" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1036.358670716696</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C44" t="n">
-        <v>1036.358670716696</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D44" t="n">
-        <v>1036.358670716696</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E44" t="n">
-        <v>1036.358670716696</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F44" t="n">
-        <v>625.3727659270879</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533141</v>
@@ -7658,7 +7660,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7670,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>1813.097842756629</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>1813.097842756629</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>1813.097842756629</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y44" t="n">
-        <v>1422.958510780817</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="45">
@@ -7701,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
         <v>1748.695370517453</v>
@@ -7746,22 +7748,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K46" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U46" t="n">
-        <v>598.0446400632119</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="V46" t="n">
-        <v>343.360151857325</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
   </sheetData>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>368.5691090902122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609924</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>337.2886456526674</v>
+        <v>312.0408247018203</v>
       </c>
       <c r="N9" t="n">
-        <v>118.4674613291454</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.663080786811</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8778,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>359.9065542451752</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>251.4045252050812</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9726,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10193,7 @@
         <v>50.07369958270195</v>
       </c>
       <c r="K30" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747122</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.9065542451756</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747122</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22556,16 +22558,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>224.5166150293527</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22589,13 +22591,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22607,10 +22609,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22629,13 +22631,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>60.23598749168869</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>98.71452446448092</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -22644,7 +22646,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22677,13 +22679,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.622687458563</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858214</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22790,13 +22792,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>412.0374214579384</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22832,7 +22834,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22844,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.2266798397538</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783944</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22860,25 +22862,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>12.19782515556486</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22908,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22926,10 +22928,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>120.4592573625853</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22960,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23024,25 +23026,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>91.44100766901636</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>118.6883361205952</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>143.6340117900448</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>187.4437379520557</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,25 +23068,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>138.67606178497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.2266798397539</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.7168118008099</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23097,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23112,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703756</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>62.76385260762019</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>100.2996914017162</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>8.11441070893386</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022108</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839144</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871616</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598919</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>219.4114360937593</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>129.2226540149259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>80.49006577330462</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47.41997957426378</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23507,10 +23509,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>29.15788302489301</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23741,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>250.3937014034608</v>
       </c>
       <c r="G17" t="n">
-        <v>89.79231049790008</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23795,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23899,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.3098022590509</v>
@@ -23941,10 +23943,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>96.01048066168096</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>174.4088577256821</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23975,16 +23977,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>62.54498204632119</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24023,19 +24025,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>230.1603801106394</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24127,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>118.2178427284374</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24172,7 +24174,7 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.83478528866331</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24209,16 +24211,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>42.05485008526489</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24266,10 +24268,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24418,10 +24420,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24446,16 +24448,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24488,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>195.6933023752735</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>323.1984001294972</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>123.3173988889583</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24649,10 +24651,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>168.1531355799262</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>238.2771585363003</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24686,19 +24688,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>56.29943755183274</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>26.02192683660459</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,13 +24855,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>56.82580834555249</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,13 +24882,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
@@ -24904,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24920,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24929,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24980,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>17.25436541380077</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25093,10 +25095,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>56.01837628787223</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25154,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25166,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>89.79231049789962</v>
+        <v>87.89789849280857</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25318,22 +25320,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>162.4712386356287</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25363,16 +25365,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25397,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25406,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>135.6163733300092</v>
       </c>
       <c r="U38" t="n">
-        <v>228.3998177885451</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>168.1531355799262</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25567,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>96.25160475629417</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>144.2707130727116</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25691,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25786,19 +25788,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25840,16 +25842,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>276.4914336283281</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25865,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>149.1081259408883</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26077,10 +26079,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>157.4983735401878</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>457060.9393513079</v>
+        <v>457060.939351308</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>476112.7944668496</v>
+        <v>457060.939351308</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123615</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>783970.2356123612</v>
+        <v>783970.2356123615</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123611</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123615</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123615</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123612</v>
       </c>
     </row>
     <row r="16">
@@ -26317,7 +26319,7 @@
         <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.127997248</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
@@ -26332,13 +26334,13 @@
         <v>245779.7185133939</v>
       </c>
       <c r="I2" t="n">
-        <v>245779.7185133937</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="J2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="K2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="L2" t="n">
         <v>245779.7185133939</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26613.58757266297</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835743</v>
+        <v>432846.174042996</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525643</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906351</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,7 +26423,7 @@
         <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>16958.01308307726</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
         <v>18228.92756966326</v>
@@ -26470,10 +26472,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
+        <v>48281.26876376167</v>
+      </c>
+      <c r="D5" t="n">
         <v>48281.26876376168</v>
-      </c>
-      <c r="D5" t="n">
-        <v>50134.40740683334</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26500,7 +26502,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340946</v>
@@ -26519,40 +26521,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4728.818284657755</v>
+        <v>-4728.818284657777</v>
       </c>
       <c r="C6" t="n">
+        <v>76040.61324688999</v>
+      </c>
+      <c r="D6" t="n">
         <v>76040.61324689003</v>
       </c>
-      <c r="D6" t="n">
-        <v>53633.11993467441</v>
-      </c>
       <c r="E6" t="n">
-        <v>-229401.1248032532</v>
+        <v>-254526.8611626749</v>
       </c>
       <c r="F6" t="n">
         <v>178319.3128803212</v>
       </c>
       <c r="G6" t="n">
-        <v>178319.3128803212</v>
+        <v>178319.3128803211</v>
       </c>
       <c r="H6" t="n">
-        <v>178319.3128803212</v>
+        <v>178319.3128803211</v>
       </c>
       <c r="I6" t="n">
-        <v>178319.312880321</v>
+        <v>178319.3128803211</v>
       </c>
       <c r="J6" t="n">
-        <v>115259.3702812149</v>
+        <v>115259.370281215</v>
       </c>
       <c r="K6" t="n">
         <v>178319.3128803211</v>
       </c>
       <c r="L6" t="n">
-        <v>172693.6706517955</v>
+        <v>178319.3128803212</v>
       </c>
       <c r="M6" t="n">
-        <v>75885.19518968603</v>
+        <v>70345.952206263</v>
       </c>
       <c r="N6" t="n">
         <v>178319.3128803212</v>
@@ -26741,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26790,28 +26792,28 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545555</v>
@@ -26820,7 +26822,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
@@ -26829,7 +26831,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302972</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.22774507400743</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.0452388028889</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400754</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028889</v>
+        <v>433.2729838768966</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400743</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028889</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367583</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887704</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034966</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760364</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324496</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455484</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895158</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019315</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841722</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060773</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544831</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679532</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332515</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318412</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294065</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498094</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104738</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.70429296312544</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246511</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750233</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688215</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430021</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418796</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104022</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522983</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210549</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605572</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523865</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467871</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564536</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994806</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259021</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047529</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281328</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166691</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.16985017147137</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988675</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847965</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150842</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131898</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705196</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473119</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750037</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588689</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815351</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -33409,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33433,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33521,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33606,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33646,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33670,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33758,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33843,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33883,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33907,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33995,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34080,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>226.4350751681939</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776592</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194292</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.494535815018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945113</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455864</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.2898937894759</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.8696448668208</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>134.6170405889698</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604671</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>207.6969052949493</v>
+        <v>169.9067907798019</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833253</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>193.9407825031299</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35334,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178751</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082926</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507656</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919052</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025386</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35498,7 +35500,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245897</v>
@@ -35507,7 +35509,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>289.2671274730077</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N15" t="n">
         <v>559.3197334338902</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35981,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36446,7 +36448,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245897</v>
@@ -36455,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36929,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37081,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37160,13 +37162,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37242,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37318,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37394,10 +37396,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355123</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37464,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37555,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37634,13 +37636,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37856,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N42" t="n">
         <v>559.3197334338902</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38105,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245897</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>784180.4057267143</v>
+        <v>715887.5092847083</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554236</v>
+        <v>335138.4509359648</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.6809952</v>
+        <v>10900007.06587736</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8121653.028417467</v>
+        <v>8145305.651812981</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>207.0150734853811</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>8.39578117831314</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
     </row>
     <row r="3">
@@ -743,25 +743,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>87.20907807295006</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>40.02188483835992</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>137.0815656650981</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>196.3193098422672</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="G5" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,22 +940,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>144.6341177900661</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1028,10 +1028,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>85.31372784089217</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>137.081565665098</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.19305615617969</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>227.7664834517755</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
     </row>
     <row r="9">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1226,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>108.9193184962176</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>102.4849268543049</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>159.8350691069748</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>163.3224055697213</v>
+        <v>347.0289472917001</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
@@ -1432,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>144.5450396847797</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>315.0795494993948</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
@@ -1627,7 +1627,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>298.5943754452419</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1773,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>196.7218456862862</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>186.5444490527318</v>
       </c>
       <c r="F17" t="n">
-        <v>156.4823443382506</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T18" t="n">
         <v>196.8897623984489</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>62.62684798287867</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>44.17579562641266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>118.5258183566092</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2098,7 +2098,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>21.06378739764988</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T21" t="n">
         <v>196.8897623984489</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>37.83808333974872</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>28.21611991813174</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>323.9918595228955</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>254.7862334608607</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>37.60685400616011</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,10 +2557,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>294.5359179420007</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>4.55385834063773</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>56.88196987815806</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>4.440065804380572</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>357.4847324689622</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>39.30447282260442</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2930,7 +2930,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494245</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -2967,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>99.34508049624266</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2994,25 +2994,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>198.3786983875256</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>339.0399185806816</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>162.5776147681365</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>4.440065804380628</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>325.8862715279864</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
@@ -3325,13 +3325,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>308.4404419807665</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>101.717706569126</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>94.6392697836404</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>290.003588909139</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>80.83194702764862</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>128.7835007017901</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3748,16 +3748,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>339.0399185806814</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>1.999661849415736</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3833,7 +3833,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
         <v>104.3883541553076</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>139.1296354848076</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>365.6246672476652</v>
       </c>
       <c r="G44" t="n">
-        <v>269.5134569480836</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>16.77840076253188</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>94.63926978364023</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>749.627473042513</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="C2" t="n">
-        <v>749.627473042513</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="D2" t="n">
-        <v>749.627473042513</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="E2" t="n">
-        <v>749.627473042513</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="F2" t="n">
-        <v>506.1786963984129</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="G2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>124.4399474973463</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>969.7703423957686</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>969.7703423957686</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>969.7703423957686</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>969.7703423957686</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>969.7703423957686</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>969.7703423957686</v>
       </c>
       <c r="W2" t="n">
-        <v>749.627473042513</v>
+        <v>969.7703423957686</v>
       </c>
       <c r="X2" t="n">
-        <v>749.627473042513</v>
+        <v>969.7703423957686</v>
       </c>
       <c r="Y2" t="n">
-        <v>749.627473042513</v>
+        <v>722.7372794047157</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>756.2968567456824</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C3" t="n">
-        <v>756.2968567456824</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>146.1858617037014</v>
       </c>
       <c r="L3" t="n">
-        <v>304.2053859195205</v>
+        <v>309.8793444333311</v>
       </c>
       <c r="M3" t="n">
-        <v>542.809531908403</v>
+        <v>551.9964494708621</v>
       </c>
       <c r="N3" t="n">
-        <v>781.4136778972854</v>
+        <v>551.9964494708621</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>794.1135545083931</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>750.0278363185936</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>514.8757280868508</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>267.8426650957979</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>59.99116489026505</v>
       </c>
       <c r="Y3" t="n">
-        <v>756.2968567456824</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>47.85425064936707</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>88.07040250863017</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>266.0282188019862</v>
+        <v>475.7042164136625</v>
       </c>
       <c r="C5" t="n">
-        <v>266.0282188019862</v>
+        <v>475.7042164136625</v>
       </c>
       <c r="D5" t="n">
-        <v>266.0282188019862</v>
+        <v>475.7042164136625</v>
       </c>
       <c r="E5" t="n">
-        <v>22.57944215788615</v>
+        <v>277.4018832396552</v>
       </c>
       <c r="F5" t="n">
-        <v>22.57944215788615</v>
+        <v>30.36882024860223</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>30.36882024860223</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>30.36882024860223</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>30.36882024860223</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="T5" t="n">
-        <v>752.9257720901863</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="U5" t="n">
-        <v>752.9257720901863</v>
+        <v>722.7372794047154</v>
       </c>
       <c r="V5" t="n">
-        <v>752.9257720901863</v>
+        <v>475.7042164136625</v>
       </c>
       <c r="W5" t="n">
-        <v>752.9257720901863</v>
+        <v>475.7042164136625</v>
       </c>
       <c r="X5" t="n">
-        <v>752.9257720901863</v>
+        <v>475.7042164136625</v>
       </c>
       <c r="Y5" t="n">
-        <v>509.4769954460863</v>
+        <v>475.7042164136625</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>501.9060370580465</v>
+        <v>340.1131163448327</v>
       </c>
       <c r="C6" t="n">
-        <v>327.4530077769195</v>
+        <v>165.6600870637057</v>
       </c>
       <c r="D6" t="n">
-        <v>178.5185981156682</v>
+        <v>165.6600870637057</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>251.2267644261524</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>493.3438694636834</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>735.4609745012144</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>977.5780795387454</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>776.0965082357627</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>547.8734151097866</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>547.8734151097866</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>547.8734151097866</v>
       </c>
       <c r="X6" t="n">
-        <v>877.8816728430684</v>
+        <v>547.8734151097866</v>
       </c>
       <c r="Y6" t="n">
-        <v>670.1213740781145</v>
+        <v>340.1131163448327</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021273</v>
+        <v>291.0988920136271</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021273</v>
+        <v>291.0988920136271</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021273</v>
+        <v>291.0988920136271</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021273</v>
+        <v>291.0988920136271</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021273</v>
+        <v>291.0988920136271</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021273</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021273</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021273</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021273</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>330.254671414236</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686979</v>
+        <v>563.3128681098021</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759374</v>
+        <v>785.5101925369327</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185855</v>
+        <v>950.1371873885137</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106364</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424094</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R8" t="n">
-        <v>942.659422812935</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S8" t="n">
-        <v>731.5280393924851</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T8" t="n">
-        <v>506.178696398413</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U8" t="n">
-        <v>506.178696398413</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V8" t="n">
-        <v>506.178696398413</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W8" t="n">
-        <v>262.7299197543128</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="X8" t="n">
-        <v>19.28114311021273</v>
+        <v>822.9009808048727</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021273</v>
+        <v>556.9999364092498</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>685.8223048580254</v>
+        <v>284.0905130965428</v>
       </c>
       <c r="C9" t="n">
-        <v>511.3692755768984</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="D9" t="n">
-        <v>362.4348659156472</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="E9" t="n">
-        <v>362.4348659156472</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021273</v>
+        <v>24.95018035683209</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>24.95018035683209</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>265.5537082516946</v>
       </c>
       <c r="M9" t="n">
-        <v>542.8095319084032</v>
+        <v>526.1633218638444</v>
       </c>
       <c r="N9" t="n">
-        <v>542.8095319084032</v>
+        <v>526.1633218638444</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972857</v>
+        <v>786.5763859563365</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106364</v>
+        <v>978.577760634435</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106364</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106364</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S9" t="n">
-        <v>854.0376418780934</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T9" t="n">
-        <v>854.0376418780934</v>
+        <v>850.9830782217423</v>
       </c>
       <c r="U9" t="n">
-        <v>854.0376418780934</v>
+        <v>622.7627494639471</v>
       </c>
       <c r="V9" t="n">
-        <v>854.0376418780934</v>
+        <v>387.6106412322044</v>
       </c>
       <c r="W9" t="n">
-        <v>854.0376418780934</v>
+        <v>284.0905130965428</v>
       </c>
       <c r="X9" t="n">
-        <v>854.0376418780934</v>
+        <v>284.0905130965428</v>
       </c>
       <c r="Y9" t="n">
-        <v>854.0376418780934</v>
+        <v>284.0905130965428</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797319</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021273</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L10" t="n">
-        <v>46.59526811792571</v>
+        <v>54.48163939360295</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>381.1377017843616</v>
+        <v>1543.155461091169</v>
       </c>
       <c r="C11" t="n">
-        <v>381.1377017843616</v>
+        <v>1543.155461091169</v>
       </c>
       <c r="D11" t="n">
-        <v>381.1377017843616</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="E11" t="n">
-        <v>381.1377017843616</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F11" t="n">
-        <v>381.1377017843616</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G11" t="n">
         <v>381.1377017843616</v>
@@ -5041,19 +5041,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V11" t="n">
-        <v>1662.48357412947</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W11" t="n">
-        <v>1309.714918859356</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X11" t="n">
-        <v>936.2491605982757</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="Y11" t="n">
-        <v>546.109828622464</v>
+        <v>1893.689751284806</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424006</v>
@@ -5144,19 +5144,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>190.2718927217162</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C13" t="n">
-        <v>190.2718927217162</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D13" t="n">
-        <v>190.2718927217162</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E13" t="n">
-        <v>190.2718927217162</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F13" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
         <v>53.94298182036445</v>
@@ -5220,31 +5220,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>190.2718927217162</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V13" t="n">
-        <v>190.2718927217162</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W13" t="n">
-        <v>190.2718927217162</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X13" t="n">
-        <v>190.2718927217162</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y13" t="n">
-        <v>190.2718927217162</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>952.5674858910851</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C14" t="n">
-        <v>952.5674858910851</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="D14" t="n">
-        <v>952.5674858910851</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="E14" t="n">
-        <v>952.5674858910851</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F14" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5308,22 +5308,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U14" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V14" t="n">
-        <v>1691.935981225321</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W14" t="n">
-        <v>1339.167325955207</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X14" t="n">
-        <v>1339.167325955207</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y14" t="n">
-        <v>1339.167325955207</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E15" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G15" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M15" t="n">
         <v>1194.968834417902</v>
@@ -5396,10 +5396,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816298</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837194</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5463,25 +5463,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1865.381229508782</v>
+        <v>1349.514859931282</v>
       </c>
       <c r="C17" t="n">
-        <v>1496.41871256837</v>
+        <v>980.5523429908701</v>
       </c>
       <c r="D17" t="n">
-        <v>1496.41871256837</v>
+        <v>980.5523429908701</v>
       </c>
       <c r="E17" t="n">
-        <v>1110.630459970126</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5545,22 +5545,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U17" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V17" t="n">
-        <v>2642.120401548716</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W17" t="n">
-        <v>2642.120401548716</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X17" t="n">
-        <v>2642.120401548716</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="Y17" t="n">
-        <v>2251.981069572904</v>
+        <v>1349.514859931282</v>
       </c>
     </row>
     <row r="18">
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
         <v>814.0449459359563</v>
@@ -5594,25 +5594,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5621,16 +5621,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C19" t="n">
-        <v>200.8329293182748</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D19" t="n">
-        <v>200.8329293182748</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="E19" t="n">
-        <v>200.8329293182748</v>
+        <v>411.2797076961342</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I19" t="n">
         <v>53.94298182036445</v>
@@ -5709,16 +5709,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W19" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X19" t="n">
-        <v>245.45494510253</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y19" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2323.103882821189</v>
+        <v>1757.366513095501</v>
       </c>
       <c r="C20" t="n">
-        <v>1954.141365880777</v>
+        <v>1388.403996155089</v>
       </c>
       <c r="D20" t="n">
-        <v>1595.875667274027</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E20" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5779,25 +5779,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U20" t="n">
-        <v>2675.872538091303</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V20" t="n">
-        <v>2675.872538091303</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W20" t="n">
-        <v>2323.103882821189</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X20" t="n">
-        <v>2323.103882821189</v>
+        <v>2147.505845071313</v>
       </c>
       <c r="Y20" t="n">
-        <v>2323.103882821189</v>
+        <v>1757.366513095501</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
@@ -5858,16 +5858,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>398.3338608103785</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="C22" t="n">
-        <v>398.3338608103785</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D22" t="n">
-        <v>398.3338608103785</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E22" t="n">
-        <v>369.8327295799424</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F22" t="n">
         <v>222.942782082032</v>
@@ -5934,28 +5934,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1546.944160717209</v>
+        <v>1498.518225097183</v>
       </c>
       <c r="C23" t="n">
-        <v>1177.981643776797</v>
+        <v>1498.518225097183</v>
       </c>
       <c r="D23" t="n">
-        <v>850.7171392082162</v>
+        <v>1140.252526490432</v>
       </c>
       <c r="E23" t="n">
-        <v>464.928886609972</v>
+        <v>1140.252526490432</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036445</v>
+        <v>729.2666217008248</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>311.3028135990116</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5989,13 +5989,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6019,22 +6019,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X23" t="n">
-        <v>2323.683332757143</v>
+        <v>1498.518225097183</v>
       </c>
       <c r="Y23" t="n">
-        <v>1933.544000781331</v>
+        <v>1498.518225097183</v>
       </c>
     </row>
     <row r="24">
@@ -6071,13 +6071,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>411.0461427127113</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>260.9295033003756</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G25" t="n">
         <v>53.94298182036445</v>
@@ -6171,28 +6171,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U25" t="n">
-        <v>438.9553738610022</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V25" t="n">
-        <v>343.360151857325</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1268.680947310029</v>
+        <v>1924.457674141023</v>
       </c>
       <c r="C26" t="n">
-        <v>1268.680947310029</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.680947310029</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
         <v>881.2824271224073</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2418.885877611043</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W26" t="n">
-        <v>2418.885877611043</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X26" t="n">
-        <v>2045.420119349963</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="Y26" t="n">
-        <v>1655.280787374151</v>
+        <v>2311.057514205145</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036444</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036444</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6411,25 +6411,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>456.3840257941342</v>
+        <v>723.6440692525144</v>
       </c>
       <c r="V28" t="n">
-        <v>456.3840257941342</v>
+        <v>723.6440692525144</v>
       </c>
       <c r="W28" t="n">
-        <v>456.3840257941342</v>
+        <v>723.6440692525144</v>
       </c>
       <c r="X28" t="n">
-        <v>456.3840257941342</v>
+        <v>723.6440692525144</v>
       </c>
       <c r="Y28" t="n">
-        <v>235.5914466506042</v>
+        <v>723.6440692525144</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1580.775345511216</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C29" t="n">
-        <v>1211.812828570804</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D29" t="n">
-        <v>1211.812828570804</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E29" t="n">
-        <v>826.0245759725601</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>415.0386711829526</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2657.447603318622</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2657.447603318622</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2657.447603318622</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="W29" t="n">
-        <v>2344.380435748108</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="X29" t="n">
-        <v>1970.914677487028</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="Y29" t="n">
-        <v>1580.775345511216</v>
+        <v>2013.546485980902</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
         <v>713.8062203571349</v>
@@ -6563,16 +6563,16 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6642,31 +6642,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>336.2769833124028</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U31" t="n">
-        <v>336.2769833124028</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V31" t="n">
-        <v>336.2769833124028</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W31" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1577.945354755378</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C32" t="n">
-        <v>1208.982837814967</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D32" t="n">
-        <v>850.7171392082162</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E32" t="n">
-        <v>464.928886609972</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
         <v>53.94298182036445</v>
@@ -6700,19 +6700,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>1969.341425535107</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018222</v>
+        <v>1969.341425535107</v>
       </c>
       <c r="X32" t="n">
-        <v>2354.684526795312</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="Y32" t="n">
-        <v>1964.5451948195</v>
+        <v>1595.875667274027</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424006</v>
@@ -6794,28 +6794,28 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G34" t="n">
         <v>53.94298182036445</v>
@@ -6891,19 +6891,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X34" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.1627947174721</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1507.089911220685</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C35" t="n">
-        <v>1507.089911220685</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D35" t="n">
-        <v>1507.089911220685</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E35" t="n">
-        <v>1121.30165862244</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F35" t="n">
-        <v>710.3157538328328</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T35" t="n">
-        <v>2478.514423990286</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.752638628377</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V35" t="n">
-        <v>1893.689751284806</v>
+        <v>1737.019148941773</v>
       </c>
       <c r="W35" t="n">
-        <v>1893.689751284806</v>
+        <v>1737.019148941773</v>
       </c>
       <c r="X35" t="n">
-        <v>1893.689751284806</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y35" t="n">
-        <v>1893.689751284806</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="36">
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7037,22 +7037,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036446</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036446</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7104,43 +7104,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>438.9553738610023</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036446</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1168.064026826587</v>
+        <v>1512.612574238667</v>
       </c>
       <c r="C38" t="n">
-        <v>799.1015098861748</v>
+        <v>1143.650057298256</v>
       </c>
       <c r="D38" t="n">
-        <v>799.1015098861748</v>
+        <v>1143.650057298256</v>
       </c>
       <c r="E38" t="n">
-        <v>799.1015098861748</v>
+        <v>757.8618047000114</v>
       </c>
       <c r="F38" t="n">
-        <v>799.1015098861748</v>
+        <v>346.8758999104038</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533141</v>
@@ -7180,7 +7180,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T38" t="n">
-        <v>2615.500659677163</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U38" t="n">
-        <v>2615.500659677163</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V38" t="n">
-        <v>2284.437772333592</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W38" t="n">
-        <v>1931.669117063478</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X38" t="n">
-        <v>1558.203358802398</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y38" t="n">
-        <v>1168.064026826587</v>
+        <v>1899.212414302789</v>
       </c>
     </row>
     <row r="39">
@@ -7229,73 +7229,73 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7362,22 +7362,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>598.0446400632119</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U40" t="n">
-        <v>598.0446400632119</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V40" t="n">
-        <v>343.360151857325</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1920.409918978289</v>
+        <v>1526.329725433337</v>
       </c>
       <c r="C41" t="n">
-        <v>1551.447402037877</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="D41" t="n">
-        <v>1193.181703431127</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E41" t="n">
-        <v>807.3934508328825</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F41" t="n">
-        <v>396.407546043275</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H41" t="n">
         <v>53.94298182036445</v>
@@ -7414,10 +7414,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X41" t="n">
-        <v>2697.149091018222</v>
+        <v>1526.329725433337</v>
       </c>
       <c r="Y41" t="n">
-        <v>2307.009759042411</v>
+        <v>1526.329725433337</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424006</v>
@@ -7490,43 +7490,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>728.1289842064342</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="C43" t="n">
-        <v>559.1928012785273</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="D43" t="n">
-        <v>409.0761618661916</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="E43" t="n">
-        <v>261.1630682837985</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F43" t="n">
-        <v>114.2731207858881</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H43" t="n">
         <v>53.94298182036445</v>
@@ -7611,10 +7611,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064342</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.1289842064342</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.915471247702</v>
+        <v>1954.241103772296</v>
       </c>
       <c r="C44" t="n">
-        <v>1122.952954307291</v>
+        <v>1585.278586831885</v>
       </c>
       <c r="D44" t="n">
-        <v>1122.952954307291</v>
+        <v>1227.012888225134</v>
       </c>
       <c r="E44" t="n">
-        <v>737.1647017090463</v>
+        <v>841.2246356268899</v>
       </c>
       <c r="F44" t="n">
-        <v>326.1787969194388</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036445</v>
@@ -7660,7 +7660,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548716</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.654643287636</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.515311311824</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7727,43 +7727,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2022.963088632153</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="C46" t="n">
-        <v>2022.963088632153</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.963088632153</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.963088632153</v>
+        <v>217.7808088763878</v>
       </c>
       <c r="F46" t="n">
-        <v>2022.963088632153</v>
+        <v>70.89086137847747</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U46" t="n">
-        <v>2407.975480672791</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V46" t="n">
-        <v>2312.380258669114</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W46" t="n">
-        <v>2022.963088632153</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X46" t="n">
-        <v>2022.963088632153</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y46" t="n">
-        <v>2022.963088632153</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
   </sheetData>
@@ -8063,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>299.7328472056018</v>
+        <v>302.1855340836295</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>384.6945110063436</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>129.2864630672354</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>385.2788254813443</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>138.9730561082392</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>136.5653954824675</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>384.6945110063436</v>
       </c>
       <c r="N6" t="n">
-        <v>301.248502863135</v>
+        <v>373.8491954283778</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>385.2788254813443</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.1450665890763</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>138.9730561082392</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>312.0408247018203</v>
+        <v>392.8337743093848</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>208.804873890075</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -9005,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747122</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>50.07369958270195</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10442,13 +10442,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>435.923890002883</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11147,7 +11147,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>175.7187681780995</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22558,19 +22558,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>162.313313380569</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>170.7252358559293</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>10.69576364311371</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>141.6752062949112</v>
       </c>
     </row>
     <row r="3">
@@ -22631,22 +22631,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>60.23598749168869</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>99.66720016097578</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>7.132250799777182</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>165.6608109389445</v>
       </c>
     </row>
     <row r="4">
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>21.4997874361183</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,25 +22746,25 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>1.920177260816406</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>115.0560776587299</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,22 +22792,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>185.6110602299946</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>162.313313380569</v>
       </c>
       <c r="G5" t="n">
-        <v>412.0374214579384</v>
+        <v>415.2879682170718</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,22 +22828,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>6.781739002849008</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>83.18952610899248</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>13.01096266533483</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22928,7 +22928,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>120.4592573625853</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,28 +22983,28 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>149.441432671493</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>119.491807711814</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23035,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>151.9681874521648</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>138.67606178497</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.2266798397539</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.7168118008099</v>
+        <v>141.9646172266935</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>122.995904704387</v>
       </c>
     </row>
     <row r="9">
@@ -23099,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23114,10 +23114,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23147,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S9" t="n">
-        <v>62.76385260762019</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>149.2100563066147</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>67.9332040940478</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>219.4114360937593</v>
+        <v>35.70489437178048</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>50.78177823929093</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -23436,10 +23436,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>80.49006577330462</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,10 +23503,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>66.85082057286701</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>29.15788302489301</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23661,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>15.4236932637327</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
@@ -23712,7 +23712,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>195.3859210195299</v>
       </c>
       <c r="F17" t="n">
-        <v>250.3937014034608</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,16 +23785,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23892,28 +23892,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>82.79420004005257</v>
       </c>
       <c r="G19" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23949,16 +23949,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>174.4088577256821</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>236.1572232640738</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24019,25 +24019,25 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>230.1603801106394</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>141.9938968421886</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>118.2178427284374</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>69.13653930349648</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24259,22 +24259,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24366,19 +24366,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>108.8271086404091</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24411,7 +24411,7 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24420,13 +24420,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>70.7369738290069</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>323.1984001294972</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24651,13 +24651,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>168.1531355799262</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>281.8418084375971</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>56.29943755183274</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>15.17392975220731</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24736,16 +24736,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24855,13 +24855,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>56.82580834555249</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,25 +24882,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>129.3735600826093</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>17.25436541380077</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>141.9938968421885</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
@@ -25131,7 +25131,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25162,19 +25162,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>87.89789849280857</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,13 +25213,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>19.31181648936843</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>46.89776644908638</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25368,19 +25368,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>157.4983735401876</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,16 +25399,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>123.780581111656</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>135.6163733300092</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25569,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25602,7 +25602,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>96.25160475629417</v>
+        <v>35.43826180874041</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>74.74425144011354</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>367.7314388290533</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>40.70234469712972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>134.9656217923383</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>41.25137849404626</v>
       </c>
       <c r="G44" t="n">
-        <v>144.2707130727114</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25927,10 +25927,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>150.531401496519</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26070,22 +26070,22 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>157.4983735401878</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457060.9393513079</v>
+        <v>460139.1927209569</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>457060.939351308</v>
+        <v>460139.192720957</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>457060.939351308</v>
+        <v>476112.7944668498</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>783970.2356123611</v>
+        <v>783970.2356123612</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123612</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123612</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>783970.2356123612</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>783970.2356123612</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141236.5716516325</v>
+        <v>142222.1657638405</v>
       </c>
       <c r="C2" t="n">
-        <v>141236.5716516325</v>
+        <v>142222.1657638405</v>
       </c>
       <c r="D2" t="n">
-        <v>141236.5716516325</v>
+        <v>147339.1279972481</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="F2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="G2" t="n">
         <v>245779.7185133939</v>
@@ -26343,7 +26343,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="L2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="M2" t="n">
         <v>245779.7185133939</v>
@@ -26352,10 +26352,10 @@
         <v>245779.7185133939</v>
       </c>
       <c r="O2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="P2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>85498.77860120908</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>22364.98695753529</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.174042996</v>
+        <v>407720.4376835744</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63988.37154589874</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4727.563118847354</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740581</v>
+        <v>102434.1176906352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16914.68964098084</v>
+        <v>16922.92270143587</v>
       </c>
       <c r="C4" t="n">
-        <v>16914.68964098084</v>
+        <v>16922.92270143587</v>
       </c>
       <c r="D4" t="n">
-        <v>16914.68964098084</v>
+        <v>16958.01308307726</v>
       </c>
       <c r="E4" t="n">
         <v>18228.92756966326</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>48577.10433863014</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>48577.10433863014</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376168</v>
+        <v>50134.40740683334</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26502,7 +26502,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4728.818284657777</v>
+        <v>-20936.67437322751</v>
       </c>
       <c r="C6" t="n">
-        <v>76040.61324688999</v>
+        <v>64562.10422798159</v>
       </c>
       <c r="D6" t="n">
-        <v>76040.61324689003</v>
+        <v>46022.68383244496</v>
       </c>
       <c r="E6" t="n">
-        <v>-254526.8611626749</v>
+        <v>-235469.5385490725</v>
       </c>
       <c r="F6" t="n">
-        <v>178319.3128803212</v>
+        <v>172250.8991345018</v>
       </c>
       <c r="G6" t="n">
-        <v>178319.3128803211</v>
+        <v>172250.899134502</v>
       </c>
       <c r="H6" t="n">
-        <v>178319.3128803211</v>
+        <v>172250.8991345019</v>
       </c>
       <c r="I6" t="n">
-        <v>178319.3128803211</v>
+        <v>172250.899134502</v>
       </c>
       <c r="J6" t="n">
-        <v>115259.370281215</v>
+        <v>108262.5275886032</v>
       </c>
       <c r="K6" t="n">
-        <v>178319.3128803211</v>
+        <v>172250.899134502</v>
       </c>
       <c r="L6" t="n">
-        <v>178319.3128803212</v>
+        <v>167523.3360156545</v>
       </c>
       <c r="M6" t="n">
-        <v>70345.952206263</v>
+        <v>69816.78144386681</v>
       </c>
       <c r="N6" t="n">
-        <v>178319.3128803212</v>
+        <v>172250.899134502</v>
       </c>
       <c r="O6" t="n">
-        <v>178319.3128803211</v>
+        <v>172250.8991345019</v>
       </c>
       <c r="P6" t="n">
-        <v>178319.3128803212</v>
+        <v>172250.8991345019</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3.673862893242368</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26813,19 +26813,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3.673862893242368</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>19.339519793547</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>354.7302815302973</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>18.67930159052418</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768965</v>
+        <v>411.045238802889</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.67930159052418</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768966</v>
+        <v>411.045238802889</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.67930159052418</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768965</v>
+        <v>411.045238802889</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.01476929806328589</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1512560737906267</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.5693933635848298</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.253525711498812</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.878710098517704</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.33070600412199</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.593359508554951</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.635322776677262</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.488460569060463</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.123843523123092</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.594918036231666</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.9277519194678832</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.3365553796171276</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.06465260227203402</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.001181543845062871</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.007902271128860943</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.07631930274452543</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.2720738086033264</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578667</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.27604349189155</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.715797948395882</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.00225527681709</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.055249016097917</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.88015132424263</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.508987194773455</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.00871797778232</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.4906339916673489</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.1467812203102021</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.03185169810273335</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.0005198862584776939</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.006624998659945254</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.05890226081296784</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.1992317778827173</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.4683874052581294</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.7697043897645484</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.9849566189522245</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.038498653576691</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.013805476753259</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.9364134469529894</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.8012634742901056</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.5547532968795976</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.2978840306553565</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.1154556584646822</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.02830681245612971</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.0003613635632697415</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.09251611130367558</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.9474806248887679</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7.852189301760344</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>5.811515176679516</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.108210886332509</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.0495004835149808</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4.676710155246499</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>9.452421277522957</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>6.350561815847949</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.1773162272588684</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31776,22 +31776,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31864,16 +31864,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,13 +31934,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31949,7 +31949,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32013,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32101,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32186,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32250,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32338,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32423,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33523,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33760,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>92.68955593933619</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>127.8998415301112</v>
       </c>
       <c r="L3" t="n">
-        <v>161.1784674257276</v>
+        <v>165.3469522521511</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>185.9973484203804</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>27.59002526031614</v>
+        <v>28.57498187926836</v>
       </c>
       <c r="M4" t="n">
-        <v>39.58387696184059</v>
+        <v>40.62237561541728</v>
       </c>
       <c r="N4" t="n">
-        <v>44.13217237922859</v>
+        <v>45.14597785598185</v>
       </c>
       <c r="O4" t="n">
-        <v>24.58512791403967</v>
+        <v>25.52154136099266</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>234.0017634719808</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9067907798017</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0.679646369519445</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.59002526031614</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M7" t="n">
-        <v>39.58387696184059</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N7" t="n">
-        <v>44.13217237922859</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O7" t="n">
-        <v>24.58512791403967</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>115.8239578194291</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>166.2898937894758</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.930118828988642</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798019</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>75.14179310326406</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>27.59002526031614</v>
+        <v>33.75987543178749</v>
       </c>
       <c r="M10" t="n">
-        <v>39.58387696184059</v>
+        <v>46.08911889082925</v>
       </c>
       <c r="N10" t="n">
-        <v>44.13217237922859</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="O10" t="n">
-        <v>24.58512791403967</v>
+        <v>30.4508996191905</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.297740302025373</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35424,10 +35424,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35503,7 +35503,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35585,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35661,10 +35661,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35892,16 +35892,16 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N17" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35977,13 +35977,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36448,7 +36448,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245897</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37162,13 +37162,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37314,16 +37314,16 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N35" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37396,10 +37396,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>515.9012490932197</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37867,7 +37867,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
         <v>559.3197334338902</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245897</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
